--- a/registro_ponto_simulado.xlsx
+++ b/registro_ponto_simulado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data-engineering-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6AFB70-BDCB-4507-A5BE-08E78A23C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC70771-42ED-4178-B729-11C373A00735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>Entrada 1</t>
   </si>
@@ -40,313 +40,304 @@
     <t>Observação</t>
   </si>
   <si>
-    <t>08:27</t>
-  </si>
-  <si>
-    <t>12:19</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>17:43</t>
+    <t>08:49</t>
+  </si>
+  <si>
+    <t>12:23</t>
+  </si>
+  <si>
+    <t>13:36</t>
+  </si>
+  <si>
+    <t>18:02</t>
   </si>
   <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>12:11</t>
-  </si>
-  <si>
-    <t>13:38</t>
-  </si>
-  <si>
-    <t>18:38</t>
-  </si>
-  <si>
-    <t>08:36</t>
-  </si>
-  <si>
-    <t>12:14</t>
-  </si>
-  <si>
-    <t>13:25</t>
-  </si>
-  <si>
-    <t>17:47</t>
-  </si>
-  <si>
-    <t>08:53</t>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>18:06</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>11:27</t>
+  </si>
+  <si>
+    <t>12:44</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>13:04</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>18:32</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>13:16</t>
+  </si>
+  <si>
+    <t>17:32</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>08:37</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>13:27</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>09:13</t>
   </si>
   <si>
     <t>12:32</t>
   </si>
   <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>18:37</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>18:16</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>18:04</t>
+  </si>
+  <si>
+    <t>08:43</t>
+  </si>
+  <si>
+    <t>11:53</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>17:44</t>
+  </si>
+  <si>
+    <t>08:14</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>13:07</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>11:41</t>
+  </si>
+  <si>
+    <t>12:49</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>17:19</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>13:01</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>11:42</t>
+  </si>
+  <si>
+    <t>12:51</t>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>13:06</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>18:01</t>
+  </si>
+  <si>
+    <t>08:26</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>13:21</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>18:35</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>11:49</t>
+  </si>
+  <si>
+    <t>17:33</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>18:31</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
     <t>13:54</t>
   </si>
   <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>11:50</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>17:56</t>
-  </si>
-  <si>
-    <t>08:13</t>
-  </si>
-  <si>
-    <t>11:15</t>
-  </si>
-  <si>
-    <t>12:33</t>
-  </si>
-  <si>
-    <t>17:31</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>12:23</t>
-  </si>
-  <si>
-    <t>08:19</t>
-  </si>
-  <si>
-    <t>12:16</t>
-  </si>
-  <si>
-    <t>17:28</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>13:01</t>
-  </si>
-  <si>
-    <t>14:02</t>
-  </si>
-  <si>
-    <t>18:14</t>
-  </si>
-  <si>
-    <t>13:04</t>
-  </si>
-  <si>
-    <t>14:22</t>
-  </si>
-  <si>
-    <t>18:31</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>11:31</t>
-  </si>
-  <si>
-    <t>12:49</t>
-  </si>
-  <si>
-    <t>17:49</t>
-  </si>
-  <si>
-    <t>08:15</t>
-  </si>
-  <si>
-    <t>11:18</t>
-  </si>
-  <si>
-    <t>12:37</t>
-  </si>
-  <si>
-    <t>17:34</t>
-  </si>
-  <si>
-    <t>Este registro foi inserido manualmente.</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>11:47</t>
-  </si>
-  <si>
-    <t>12:58</t>
-  </si>
-  <si>
-    <t>17:41</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>13:34</t>
-  </si>
-  <si>
-    <t>09:03</t>
-  </si>
-  <si>
-    <t>12:47</t>
-  </si>
-  <si>
-    <t>14:04</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>11:56</t>
-  </si>
-  <si>
-    <t>13:26</t>
-  </si>
-  <si>
-    <t>17:57</t>
-  </si>
-  <si>
-    <t>08:11</t>
-  </si>
-  <si>
-    <t>11:33</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
-    <t>09:01</t>
-  </si>
-  <si>
-    <t>12:18</t>
-  </si>
-  <si>
-    <t>13:22</t>
-  </si>
-  <si>
-    <t>18:05</t>
-  </si>
-  <si>
-    <t>12:21</t>
-  </si>
-  <si>
-    <t>13:49</t>
-  </si>
-  <si>
-    <t>18:03</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>12:04</t>
-  </si>
-  <si>
-    <t>17:52</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>11:59</t>
-  </si>
-  <si>
-    <t>13:17</t>
-  </si>
-  <si>
-    <t>18:08</t>
-  </si>
-  <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>11:46</t>
-  </si>
-  <si>
-    <t>12:48</t>
-  </si>
-  <si>
-    <t>17:42</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>12:34</t>
-  </si>
-  <si>
-    <t>18:35</t>
-  </si>
-  <si>
-    <t>12:54</t>
-  </si>
-  <si>
-    <t>13:58</t>
-  </si>
-  <si>
-    <t>08:22</t>
-  </si>
-  <si>
-    <t>11:28</t>
-  </si>
-  <si>
-    <t>17:44</t>
-  </si>
-  <si>
-    <t>13:59</t>
-  </si>
-  <si>
-    <t>18:27</t>
-  </si>
-  <si>
-    <t>08:25</t>
-  </si>
-  <si>
-    <t>11:32</t>
-  </si>
-  <si>
-    <t>12:38</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>12:29</t>
-  </si>
-  <si>
-    <t>13:45</t>
-  </si>
-  <si>
-    <t>18:26</t>
-  </si>
-  <si>
-    <t>08:23</t>
-  </si>
-  <si>
-    <t>11:55</t>
-  </si>
-  <si>
-    <t>13:16</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>12:35</t>
-  </si>
-  <si>
-    <t>17:21</t>
+    <t>18:18</t>
   </si>
 </sst>
 </file>
@@ -712,15 +703,12 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,16 +801,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -830,16 +818,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -847,16 +835,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -864,16 +852,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -881,16 +869,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -898,16 +886,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -915,16 +903,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -935,33 +923,30 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -969,16 +954,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -986,280 +971,274 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
